--- a/data/trans_orig/P28$madre_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P28$madre_2012-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A32E1D3-2173-42C8-9B41-BAF3DAB8B2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E32F7A5-CBD8-4710-98D8-E8CA8156E2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0479E26-D59A-442F-87E4-5C070A1DCE2A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CF6CF8CA-D1C1-4E33-81F0-3252EF33FF2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="192">
   <si>
-    <t>Población según persona que fumaba habitualmente en el hogar donde se crió en 2012</t>
+    <t>Población según persona que fumaba habitualmente en el hogar donde se crió (multirrespuesta) en 2012</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E3F411-9D32-4012-82EC-2266A4058D9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB9DF24-6179-4D70-B5DC-421224B4909C}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
